--- a/medicine/Mort/Décès_en_1313/Décès_en_1313.xlsx
+++ b/medicine/Mort/Décès_en_1313/Décès_en_1313.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1313</t>
+          <t>Décès_en_1313</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -515,7 +527,7 @@
 Marie de Mortagne, châtelaine de Tournai et  dame de Mortagne.
 Cécile de Rodez, comtesse de Rodez.
 Alessandro della Spina, dominicain italien à qui on a attribué l’invention des lunettes.
-Takla Haymanot, moine éthiopien, fondateur du monastère de Debré Libanos[1].
+Takla Haymanot, moine éthiopien, fondateur du monastère de Debré Libanos.
 Jean Lemoine, cardinal, évêque d'Arras et légat du pape Boniface VIII auprès de Philippe le Bel, fondateur du collège portant son nom, à Paris.
 Takatsukasa Mototada, régent kampaku.
 Yao Sui, poète chinois de la Dynastie Yuan.</t>
